--- a/cases/Parandu 2025/parandu_dec25.xlsx
+++ b/cases/Parandu 2025/parandu_dec25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mayank\Desktop\RAJALI 2025\Fly-By-Data-main\cases\parandu_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DE513E-59D6-4183-B8CF-54DBD5522C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E291C32E-5806-4A19-9AC7-33DEDF5E61B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{60728B73-4B58-4ADB-9CF4-31B33D5B17FC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>13 Dec_Flight4_5KM_base.bin-1770711.mat</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>Helical flight tuning</t>
+  </si>
+  <si>
+    <t>cleaned_12 Dec_Flight2_3KM_Beach.csv</t>
+  </si>
+  <si>
+    <t>12 Dec_Flight2_3KM.beach.bin-1239127.mat</t>
+  </si>
+  <si>
+    <t>13 Dec_Flight3_5KM_up_beach.bin-1863188.mat</t>
+  </si>
+  <si>
+    <t>cleaned_13 Dec_Flight_5km_up_beach.csv</t>
+  </si>
+  <si>
+    <t>cleaned_14 Dec_F2_AFTERNOON_3KM_beach.csv</t>
+  </si>
+  <si>
+    <t>2025-12-14 12-55-20.bin-1820656.mat</t>
   </si>
 </sst>
 </file>
@@ -508,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C0512A-DFA8-473B-A76A-9FEF8918BDC5}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,6 +766,66 @@
       <c r="E12" s="5" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>46368</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>5960</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>46369</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>46370</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
